--- a/Documentação/Ensaios/regulatorio.xlsx
+++ b/Documentação/Ensaios/regulatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCC\TCC\Documentação\Ensaios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{A29C5136-D7ED-452E-9D32-37859501B239}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D568C5-C641-4537-AC95-7D2B38733F2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F5DB293-6DB6-422C-B737-0FFC7FEAD9FB}"/>
   </bookViews>
@@ -31,12 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Saída Pan</t>
   </si>
   <si>
     <t>Saída Tilt</t>
+  </si>
+  <si>
+    <t>Sinal de Controle Eixo Pan</t>
+  </si>
+  <si>
+    <t>Sinal de Controle Eixo Tilt</t>
   </si>
 </sst>
 </file>
@@ -2646,6 +2652,5323 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-095E-46F7-935D-B890F4652725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sinal de Controle Eixo Pan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$GT$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$4:$GT$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>-4.9438300198401203E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.7132601631373596E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.7103349973486603E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.204154942405507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14285839632469699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20611921753652199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.21492695409027601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.180757448094023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.199389823320338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.19200581301814901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.259489096300907</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.26153247113595002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.35915768168882201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.25401981074671898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.305867949001075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.349877531810874</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.36122353414335001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.39060511341899001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.47739619355205398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9259198884953199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0529399481892998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.1726378985325701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13.563925600811499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-16.203334284398299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-24.289555623092902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-28.987914106568201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-35.0177696395669</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-38.683436891839598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-41.4182969597639</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-45.9840469148455</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-46.431827207646698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-48.456692877609598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-50.608660612603302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-50.5664427992253</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-52.115308718667002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-53.090427154792202</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-52.6484507185558</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-52.823077980236299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-52.445510196432302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-52.578294309153797</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-52.264244965282302</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-52.2345857202586</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-52.012392679061499</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-51.837713781287903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-51.674884028475503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-51.373153459515102</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-51.133452283994103</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-50.894756859853103</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-50.5214578564402</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-50.337599251492698</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-50.032713416633399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-49.845438672988102</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-49.704898653894702</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-49.4793886634614</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-49.426848272670199</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-49.1696630295407</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-49.039530541392899</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-48.918513046445902</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-48.951784279693399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-48.8216918899574</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-48.7716135040098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-48.560711568360801</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-48.485084005458503</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-48.410222208636696</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-48.299286938717202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-48.207738586186302</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-47.979393198294296</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-47.747686475515899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-47.514112849752998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-47.306867077642799</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-47.535995577130102</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-47.3417989527833</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-47.996573075011902</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-48.086314090372703</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-48.379347725985198</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-48.279213496192</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-48.061842691458999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-48.1158677413747</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-48.1558156140931</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-48.581701272134801</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-48.614431785852901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-48.322150683266401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-48.509388684221399</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-48.430095264442997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-48.848861246701198</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-48.855626287932203</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-48.991656302092402</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-49.112228607480702</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-49.169278802855303</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-49.287272810428398</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-49.311466785227204</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-49.408603713014401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-49.471742348532302</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-49.6129115072766</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-49.4937161696662</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-49.719218281961197</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-49.721303794858699</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-49.822111306097398</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-49.883795289393497</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-49.960983926813299</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-49.9674710698038</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-50.037747215036703</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-50.1422097786809</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-50.132797264708699</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-50.209374443995898</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-50.246782907844398</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-50.299713933621199</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-50.217379368105803</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-50.260190556419602</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-50.243224482490803</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-49.798049137588798</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-49.902077126773499</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-49.681278834659601</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-49.534834197824303</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-49.4592502074021</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-49.3147231428065</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-49.073495218505698</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-48.813015844906097</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-47.588611820663601</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-46.7273361354709</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-44.413258689512801</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-42.131890581345999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-38.788063762612502</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-34.687131330876603</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-30.2488188535735</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-24.808486088328699</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-20.094295963195201</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-15.2020695097856</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-10.757691853271901</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-7.5300457185483101</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-5.5387848817392697</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.7223745513666899</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.67474496529335104</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.80384442974578096</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3517984524917699</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.1073052732775301</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.4972739202001302</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.10873234542471</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.6927313715082102</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.9956395574713204</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.3849410433741403</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.8864168645108501</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0341669965943696</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.4057126192496696</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.7039740889913801</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.8325160685327404</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.0710708820404999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.2219676094473702</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.1154972363760303</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.2847804452242002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.2547705095576696</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.1458394470623201</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.1704038271292196</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.1913479633087096</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.1779568021407796</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.2478207193116297</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.1843636489368201</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.1500456859263597</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7.1348588946674001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7.10699942004333</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.01960512983685</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.9270174870456804</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.9317239698838202</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.7924547907350599</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.7511041664317197</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.6658574188431299</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.5334497049124902</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.5846158819431997</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.2927297259859296</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.2542872095917996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.4545619788387896</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.1205620877862099</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.5938382446103496</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.4222159036609403</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.4452398373791899</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.0939494524466502</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.3248578319954198</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.3738938411802399</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.9602648707402901</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.6684990317256401</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.60193983372715</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.3030512438939501</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.43938379204485</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.28894520321265</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.3709530159668499</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.2298363197723601</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.4167668664742401</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.29673429081628</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.3493942005495301</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.4576390783222399</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.47231563326092</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.6633693145387201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.84209874064833</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.96435426908109</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.99005840316319</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.12556585482645</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.2073762517322999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.3104667914385102</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.4051240105529401</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.5031233546178902</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.5997982145649501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-925D-4BF0-A16B-97591B2EF4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sinal de Controle Eixo Tilt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$GT$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$5:$GT$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>-2.3060207349313702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3495597389602598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4611002673293898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6092880458450498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.6263803844521298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.73644110384733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8846604150995998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.84004582717168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.07984358789072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.13517087145854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.2380509669348498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.34385612794234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.4498849851892501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.5559740421776098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6621134240473801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7064725549199902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.8186597918098002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9056540611842498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.9911609219244801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.07661532821656</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.1621041578060201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.8148226871553899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5092198432751398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.5014065917807899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.4298340401706802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.5204187334228498</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.3218135266889002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.6851675933208399</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.8910137893371299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.9351118810351799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.6108239106960696</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.6908537937330399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.0411943791190001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.6878591304967898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.8713438058576504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.3167090290720802</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.7812596989627396</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.9283066417988604</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.8771002595794002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.2688651251864096</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.3291687061026503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.5125255251936203</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.4592251253888602</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.6062193122318504</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-7.6773580166844404</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.4966142141534302</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.5249068797263803</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.5200212425805599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-7.4837741777417399</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.4456119161333101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.4073168788133996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.4308269507799896</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.4483702845966198</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-7.4233599918177804</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.3632816468835003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.3726031462388999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-7.3567816016242098</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.1539404327870599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.2161641053927097</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-7.13486748321208</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-7.0741935014654302</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-7.0147417302715001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-6.9553378173693199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-6.8340806650435999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-6.8424043273913799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-6.7576790662872099</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-6.7584614832639103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-7.1256825894886502</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-8.2803568000209999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.2576772272028407</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-11.7803571302529</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-12.013343982318901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-17.998949537432299</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-21.647447347646398</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-24.365015251865898</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-29.714671770856299</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-32.457771425225502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-36.964974959721197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-39.227145794752502</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-40.903992804671702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-44.670730416426501</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-45.045279167577597</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-46.007011762780998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-48.0652773739221</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-47.517284661377403</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-47.525905827956699</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-47.487399324369001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-47.730471826214497</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-47.176343704529799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-47.074543296710502</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-46.856471063063502</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-46.621541455861603</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-46.343287597090097</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-46.029807589945598</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-46.0947563560525</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-45.548231346124602</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-45.335555013315599</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-45.035322978806597</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-44.833686468907402</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-44.537032183914199</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-44.387503094575898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-44.103718114287197</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-43.808547731851199</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-43.584107974492902</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-43.334502910296102</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-43.145094008888798</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-42.887697247183503</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-42.779079886083402</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-42.350834813845097</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-42.176394659588397</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-42.176518177496803</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-41.839183325739498</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-41.670213567780301</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-41.543845653208201</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-41.348452104389096</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-41.239972389998499</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-41.188818446346602</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-40.841873643635502</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-40.873873090786503</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-40.697685481465903</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-40.072872541457301</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-39.560205933728597</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-39.072835334575402</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-38.729362218637903</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-38.452822406112901</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-37.985194396925102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-37.984448330223302</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-37.664136305689198</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-37.263020429457903</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-37.0586345809823</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-36.992862773214199</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-36.968126492156003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-36.747714438631597</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-36.694585279023201</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-36.580013394640098</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-36.367360127215498</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-36.291773483796199</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-36.289414337003599</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-36.148388809382098</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-35.995773594505501</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-35.852109357474198</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-35.751123979396802</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-35.6233287994514</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-35.493853788025604</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-35.487880077000398</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-35.655432976294598</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-35.472688370385498</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-35.548779339934597</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-35.477848871959999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-35.498883576323102</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-35.496146946792997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-35.553799521165203</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-35.543584632858497</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-35.558605196461102</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-35.698820628079297</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-35.765409555694497</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-35.691058961355303</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-35.7187603553052</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-35.889164206279098</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-35.8958350957448</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-35.951293252253002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-36.009730367242099</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-36.068373600287401</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-36.188885118864803</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-36.241646405882101</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-36.134187953842499</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-36.2934593126867</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-35.9383739082758</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-33.846582820704398</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-33.9768464488821</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-30.679455026642099</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-27.447893962323</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-23.6808276976112</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-18.563893728807201</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-13.902030320897101</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-9.2812347662553201</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-4.5320231307633598</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.394044964295509</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.1046676136814899</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.2254057011538002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.8575367782396297</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.5283259524503698</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11.2638814082596</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11.8166027544831</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>12.490584864422299</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>12.886437078340601</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>12.7528699207299</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>12.940382356430201</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13.003091877773</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>12.4884309268117</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>12.481627969229301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>12.023457898424599</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11.823951440411999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11.5226218679485</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11.214993302662</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.845017913801399</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.542654012134101</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.153071622014499</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.8914158639825498</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.53649221425629</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.0814540946031403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-925D-4BF0-A16B-97591B2EF4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1723020607"/>
+        <c:axId val="1724509807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1723020607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724509807"/>
+        <c:crossesAt val="-300"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1724509807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723020607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050"/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sinal de Controle Eixo Pan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$GT$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$4:$GT$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>-4.9438300198401203E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.7132601631373596E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.7103349973486603E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.204154942405507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14285839632469699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.20611921753652199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.21492695409027601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.180757448094023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.199389823320338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.19200581301814901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.259489096300907</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.26153247113595002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.35915768168882201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.25401981074671898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.305867949001075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.349877531810874</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.36122353414335001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.39060511341899001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.47739619355205398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9259198884953199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0529399481892998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.1726378985325701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13.563925600811499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-16.203334284398299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-24.289555623092902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-28.987914106568201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-35.0177696395669</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-38.683436891839598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-41.4182969597639</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-45.9840469148455</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-46.431827207646698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-48.456692877609598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-50.608660612603302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-50.5664427992253</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-52.115308718667002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-53.090427154792202</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-52.6484507185558</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-52.823077980236299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-52.445510196432302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-52.578294309153797</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-52.264244965282302</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-52.2345857202586</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-52.012392679061499</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-51.837713781287903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-51.674884028475503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-51.373153459515102</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-51.133452283994103</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-50.894756859853103</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-50.5214578564402</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-50.337599251492698</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-50.032713416633399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-49.845438672988102</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-49.704898653894702</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-49.4793886634614</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-49.426848272670199</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-49.1696630295407</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-49.039530541392899</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-48.918513046445902</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-48.951784279693399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-48.8216918899574</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-48.7716135040098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-48.560711568360801</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-48.485084005458503</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-48.410222208636696</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-48.299286938717202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-48.207738586186302</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-47.979393198294296</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-47.747686475515899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-47.514112849752998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-47.306867077642799</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-47.535995577130102</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-47.3417989527833</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-47.996573075011902</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-48.086314090372703</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-48.379347725985198</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-48.279213496192</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-48.061842691458999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-48.1158677413747</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-48.1558156140931</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-48.581701272134801</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-48.614431785852901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-48.322150683266401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-48.509388684221399</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-48.430095264442997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-48.848861246701198</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-48.855626287932203</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-48.991656302092402</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-49.112228607480702</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-49.169278802855303</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-49.287272810428398</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-49.311466785227204</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-49.408603713014401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-49.471742348532302</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-49.6129115072766</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-49.4937161696662</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-49.719218281961197</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-49.721303794858699</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-49.822111306097398</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-49.883795289393497</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-49.960983926813299</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-49.9674710698038</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-50.037747215036703</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-50.1422097786809</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-50.132797264708699</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-50.209374443995898</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-50.246782907844398</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-50.299713933621199</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-50.217379368105803</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-50.260190556419602</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-50.243224482490803</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-49.798049137588798</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-49.902077126773499</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-49.681278834659601</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-49.534834197824303</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-49.4592502074021</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-49.3147231428065</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-49.073495218505698</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-48.813015844906097</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-47.588611820663601</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-46.7273361354709</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-44.413258689512801</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-42.131890581345999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-38.788063762612502</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-34.687131330876603</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-30.2488188535735</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-24.808486088328699</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-20.094295963195201</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-15.2020695097856</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-10.757691853271901</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-7.5300457185483101</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-5.5387848817392697</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.7223745513666899</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.67474496529335104</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.80384442974578096</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3517984524917699</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.1073052732775301</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.4972739202001302</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.10873234542471</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.6927313715082102</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.9956395574713204</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.3849410433741403</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.8864168645108501</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0341669965943696</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.4057126192496696</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.7039740889913801</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.8325160685327404</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.0710708820404999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.2219676094473702</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.1154972363760303</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.2847804452242002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.2547705095576696</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.1458394470623201</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.1704038271292196</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.1913479633087096</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7.1779568021407796</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.2478207193116297</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.1843636489368201</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.1500456859263597</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7.1348588946674001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7.10699942004333</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.01960512983685</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.9270174870456804</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.9317239698838202</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.7924547907350599</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.7511041664317197</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.6658574188431299</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.5334497049124902</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.5846158819431997</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.2927297259859296</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.2542872095917996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.4545619788387896</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.1205620877862099</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.5938382446103496</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.4222159036609403</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.4452398373791899</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.0939494524466502</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.3248578319954198</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.3738938411802399</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.9602648707402901</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.6684990317256401</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.60193983372715</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.3030512438939501</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.43938379204485</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.28894520321265</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.3709530159668499</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.2298363197723601</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.4167668664742401</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.29673429081628</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.3493942005495301</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.4576390783222399</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.47231563326092</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.6633693145387201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.84209874064833</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.96435426908109</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.99005840316319</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.12556585482645</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.2073762517322999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.3104667914385102</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.4051240105529401</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.5031233546178902</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.5997982145649501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCA9-407A-B761-10CE97B6301A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sinal de Controle Eixo Tilt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$1:$GT$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$5:$GT$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>-2.3060207349313702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3495597389602598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4611002673293898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6092880458450498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.6263803844521298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.73644110384733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8846604150995998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.84004582717168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.07984358789072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.13517087145854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.2380509669348498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.34385612794234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.4498849851892501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.5559740421776098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6621134240473801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7064725549199902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.8186597918098002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9056540611842498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.9911609219244801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.07661532821656</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.1621041578060201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.8148226871553899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5092198432751398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.5014065917807899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.4298340401706802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.5204187334228498</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.3218135266889002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.6851675933208399</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.8910137893371299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.9351118810351799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.6108239106960696</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.6908537937330399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.0411943791190001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.6878591304967898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.8713438058576504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.3167090290720802</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.7812596989627396</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.9283066417988604</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6.8771002595794002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.2688651251864096</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.3291687061026503</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.5125255251936203</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.4592251253888602</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.6062193122318504</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-7.6773580166844404</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.4966142141534302</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.5249068797263803</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.5200212425805599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-7.4837741777417399</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.4456119161333101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.4073168788133996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.4308269507799896</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.4483702845966198</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-7.4233599918177804</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.3632816468835003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.3726031462388999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-7.3567816016242098</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.1539404327870599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.2161641053927097</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-7.13486748321208</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-7.0741935014654302</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-7.0147417302715001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-6.9553378173693199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-6.8340806650435999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-6.8424043273913799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-6.7576790662872099</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-6.7584614832639103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-7.1256825894886502</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-8.2803568000209999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.2576772272028407</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-11.7803571302529</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-12.013343982318901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-17.998949537432299</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-21.647447347646398</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-24.365015251865898</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-29.714671770856299</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-32.457771425225502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-36.964974959721197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-39.227145794752502</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-40.903992804671702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-44.670730416426501</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-45.045279167577597</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-46.007011762780998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-48.0652773739221</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-47.517284661377403</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-47.525905827956699</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-47.487399324369001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-47.730471826214497</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-47.176343704529799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-47.074543296710502</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-46.856471063063502</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-46.621541455861603</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-46.343287597090097</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-46.029807589945598</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-46.0947563560525</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-45.548231346124602</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-45.335555013315599</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-45.035322978806597</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-44.833686468907402</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-44.537032183914199</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-44.387503094575898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-44.103718114287197</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-43.808547731851199</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-43.584107974492902</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-43.334502910296102</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-43.145094008888798</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-42.887697247183503</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-42.779079886083402</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-42.350834813845097</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-42.176394659588397</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-42.176518177496803</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-41.839183325739498</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-41.670213567780301</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-41.543845653208201</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-41.348452104389096</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-41.239972389998499</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-41.188818446346602</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-40.841873643635502</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-40.873873090786503</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-40.697685481465903</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-40.072872541457301</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-39.560205933728597</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-39.072835334575402</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-38.729362218637903</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-38.452822406112901</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-37.985194396925102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-37.984448330223302</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-37.664136305689198</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-37.263020429457903</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-37.0586345809823</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-36.992862773214199</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-36.968126492156003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-36.747714438631597</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-36.694585279023201</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-36.580013394640098</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-36.367360127215498</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-36.291773483796199</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-36.289414337003599</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-36.148388809382098</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-35.995773594505501</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-35.852109357474198</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-35.751123979396802</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-35.6233287994514</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-35.493853788025604</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-35.487880077000398</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-35.655432976294598</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-35.472688370385498</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-35.548779339934597</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-35.477848871959999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-35.498883576323102</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-35.496146946792997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-35.553799521165203</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-35.543584632858497</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-35.558605196461102</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-35.698820628079297</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-35.765409555694497</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-35.691058961355303</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-35.7187603553052</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-35.889164206279098</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-35.8958350957448</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-35.951293252253002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-36.009730367242099</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-36.068373600287401</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-36.188885118864803</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-36.241646405882101</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-36.134187953842499</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-36.2934593126867</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-35.9383739082758</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-33.846582820704398</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-33.9768464488821</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-30.679455026642099</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-27.447893962323</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-23.6808276976112</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-18.563893728807201</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-13.902030320897101</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-9.2812347662553201</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-4.5320231307633598</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.394044964295509</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.1046676136814899</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.2254057011538002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.8575367782396297</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.5283259524503698</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11.2638814082596</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>11.8166027544831</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>12.490584864422299</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>12.886437078340601</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>12.7528699207299</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>12.940382356430201</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13.003091877773</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>12.4884309268117</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>12.481627969229301</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>12.023457898424599</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11.823951440411999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>11.5226218679485</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11.214993302662</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10.845017913801399</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.542654012134101</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.153071622014499</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9.8914158639825498</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9.53649221425629</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9.0814540946031403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCA9-407A-B761-10CE97B6301A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2871,6 +8194,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3426,20 +8789,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>440391</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3459,6 +9338,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>512110</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6F906C-482B-45FA-B767-BE5E735A25AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3764,15 +9681,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA034B9-5C22-4714-9A55-82933E34F53A}">
-  <dimension ref="A1:GT257"/>
+  <dimension ref="A1:GT5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:202" x14ac:dyDescent="0.25">
@@ -5596,1254 +11513,1220 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>-1</v>
+    <row r="4" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-4.9438300198401203E-2</v>
+      </c>
+      <c r="C4">
+        <v>-8.7132601631373596E-2</v>
+      </c>
+      <c r="D4">
+        <v>-6.7103349973486603E-2</v>
+      </c>
+      <c r="E4">
+        <v>-0.204154942405507</v>
+      </c>
+      <c r="F4">
+        <v>-0.14285839632469699</v>
+      </c>
+      <c r="G4">
+        <v>-0.20611921753652199</v>
+      </c>
+      <c r="H4">
+        <v>-0.21492695409027601</v>
+      </c>
+      <c r="I4">
+        <v>-0.180757448094023</v>
+      </c>
+      <c r="J4">
+        <v>-0.199389823320338</v>
+      </c>
+      <c r="K4">
+        <v>-0.19200581301814901</v>
+      </c>
+      <c r="L4">
+        <v>-0.259489096300907</v>
+      </c>
+      <c r="M4">
+        <v>-0.26153247113595002</v>
+      </c>
+      <c r="N4">
+        <v>-0.35915768168882201</v>
+      </c>
+      <c r="O4">
+        <v>-0.25401981074671898</v>
+      </c>
+      <c r="P4">
+        <v>-0.305867949001075</v>
+      </c>
+      <c r="Q4">
+        <v>-0.349877531810874</v>
+      </c>
+      <c r="R4">
+        <v>-0.36122353414335001</v>
+      </c>
+      <c r="S4">
+        <v>-0.39060511341899001</v>
+      </c>
+      <c r="T4">
+        <v>-0.47739619355205398</v>
+      </c>
+      <c r="U4">
+        <v>-1.9259198884953199</v>
+      </c>
+      <c r="V4">
+        <v>-2.0529399481892998</v>
+      </c>
+      <c r="W4">
+        <v>-6.1726378985325701</v>
+      </c>
+      <c r="X4">
+        <v>-13.563925600811499</v>
+      </c>
+      <c r="Y4">
+        <v>-16.203334284398299</v>
+      </c>
+      <c r="Z4">
+        <v>-24.289555623092902</v>
+      </c>
+      <c r="AA4">
+        <v>-28.987914106568201</v>
+      </c>
+      <c r="AB4">
+        <v>-35.0177696395669</v>
+      </c>
+      <c r="AC4">
+        <v>-38.683436891839598</v>
+      </c>
+      <c r="AD4">
+        <v>-41.4182969597639</v>
+      </c>
+      <c r="AE4">
+        <v>-45.9840469148455</v>
+      </c>
+      <c r="AF4">
+        <v>-46.431827207646698</v>
+      </c>
+      <c r="AG4">
+        <v>-48.456692877609598</v>
+      </c>
+      <c r="AH4">
+        <v>-50.608660612603302</v>
+      </c>
+      <c r="AI4">
+        <v>-50.5664427992253</v>
+      </c>
+      <c r="AJ4">
+        <v>-52.115308718667002</v>
+      </c>
+      <c r="AK4">
+        <v>-53.090427154792202</v>
+      </c>
+      <c r="AL4">
+        <v>-52.6484507185558</v>
+      </c>
+      <c r="AM4">
+        <v>-52.823077980236299</v>
+      </c>
+      <c r="AN4">
+        <v>-52.445510196432302</v>
+      </c>
+      <c r="AO4">
+        <v>-52.578294309153797</v>
+      </c>
+      <c r="AP4">
+        <v>-52.264244965282302</v>
+      </c>
+      <c r="AQ4">
+        <v>-52.2345857202586</v>
+      </c>
+      <c r="AR4">
+        <v>-52.012392679061499</v>
+      </c>
+      <c r="AS4">
+        <v>-51.837713781287903</v>
+      </c>
+      <c r="AT4">
+        <v>-51.674884028475503</v>
+      </c>
+      <c r="AU4">
+        <v>-51.373153459515102</v>
+      </c>
+      <c r="AV4">
+        <v>-51.133452283994103</v>
+      </c>
+      <c r="AW4">
+        <v>-50.894756859853103</v>
+      </c>
+      <c r="AX4">
+        <v>-50.5214578564402</v>
+      </c>
+      <c r="AY4">
+        <v>-50.337599251492698</v>
+      </c>
+      <c r="AZ4">
+        <v>-50.032713416633399</v>
+      </c>
+      <c r="BA4">
+        <v>-49.845438672988102</v>
+      </c>
+      <c r="BB4">
+        <v>-49.704898653894702</v>
+      </c>
+      <c r="BC4">
+        <v>-49.4793886634614</v>
+      </c>
+      <c r="BD4">
+        <v>-49.426848272670199</v>
+      </c>
+      <c r="BE4">
+        <v>-49.1696630295407</v>
+      </c>
+      <c r="BF4">
+        <v>-49.039530541392899</v>
+      </c>
+      <c r="BG4">
+        <v>-48.918513046445902</v>
+      </c>
+      <c r="BH4">
+        <v>-48.951784279693399</v>
+      </c>
+      <c r="BI4">
+        <v>-48.8216918899574</v>
+      </c>
+      <c r="BJ4">
+        <v>-48.7716135040098</v>
+      </c>
+      <c r="BK4">
+        <v>-48.560711568360801</v>
+      </c>
+      <c r="BL4">
+        <v>-48.485084005458503</v>
+      </c>
+      <c r="BM4">
+        <v>-48.410222208636696</v>
+      </c>
+      <c r="BN4">
+        <v>-48.299286938717202</v>
+      </c>
+      <c r="BO4">
+        <v>-48.207738586186302</v>
+      </c>
+      <c r="BP4">
+        <v>-47.979393198294296</v>
+      </c>
+      <c r="BQ4">
+        <v>-47.747686475515899</v>
+      </c>
+      <c r="BR4">
+        <v>-47.514112849752998</v>
+      </c>
+      <c r="BS4">
+        <v>-47.306867077642799</v>
+      </c>
+      <c r="BT4">
+        <v>-47.535995577130102</v>
+      </c>
+      <c r="BU4">
+        <v>-47.3417989527833</v>
+      </c>
+      <c r="BV4">
+        <v>-47.996573075011902</v>
+      </c>
+      <c r="BW4">
+        <v>-48.086314090372703</v>
+      </c>
+      <c r="BX4">
+        <v>-48.379347725985198</v>
+      </c>
+      <c r="BY4">
+        <v>-48.279213496192</v>
+      </c>
+      <c r="BZ4">
+        <v>-48.061842691458999</v>
+      </c>
+      <c r="CA4">
+        <v>-48.1158677413747</v>
+      </c>
+      <c r="CB4">
+        <v>-48.1558156140931</v>
+      </c>
+      <c r="CC4">
+        <v>-48.581701272134801</v>
+      </c>
+      <c r="CD4">
+        <v>-48.614431785852901</v>
+      </c>
+      <c r="CE4">
+        <v>-48.322150683266401</v>
+      </c>
+      <c r="CF4">
+        <v>-48.509388684221399</v>
+      </c>
+      <c r="CG4">
+        <v>-48.430095264442997</v>
+      </c>
+      <c r="CH4">
+        <v>-48.848861246701198</v>
+      </c>
+      <c r="CI4">
+        <v>-48.855626287932203</v>
+      </c>
+      <c r="CJ4">
+        <v>-48.991656302092402</v>
+      </c>
+      <c r="CK4">
+        <v>-49.112228607480702</v>
+      </c>
+      <c r="CL4">
+        <v>-49.169278802855303</v>
+      </c>
+      <c r="CM4">
+        <v>-49.287272810428398</v>
+      </c>
+      <c r="CN4">
+        <v>-49.311466785227204</v>
+      </c>
+      <c r="CO4">
+        <v>-49.408603713014401</v>
+      </c>
+      <c r="CP4">
+        <v>-49.471742348532302</v>
+      </c>
+      <c r="CQ4">
+        <v>-49.6129115072766</v>
+      </c>
+      <c r="CR4">
+        <v>-49.4937161696662</v>
+      </c>
+      <c r="CS4">
+        <v>-49.719218281961197</v>
+      </c>
+      <c r="CT4">
+        <v>-49.721303794858699</v>
+      </c>
+      <c r="CU4">
+        <v>-49.822111306097398</v>
+      </c>
+      <c r="CV4">
+        <v>-49.883795289393497</v>
+      </c>
+      <c r="CW4">
+        <v>-49.960983926813299</v>
+      </c>
+      <c r="CX4">
+        <v>-49.9674710698038</v>
+      </c>
+      <c r="CY4">
+        <v>-50.037747215036703</v>
+      </c>
+      <c r="CZ4">
+        <v>-50.1422097786809</v>
+      </c>
+      <c r="DA4">
+        <v>-50.132797264708699</v>
+      </c>
+      <c r="DB4">
+        <v>-50.209374443995898</v>
+      </c>
+      <c r="DC4">
+        <v>-50.246782907844398</v>
+      </c>
+      <c r="DD4">
+        <v>-50.299713933621199</v>
+      </c>
+      <c r="DE4">
+        <v>-50.217379368105803</v>
+      </c>
+      <c r="DF4">
+        <v>-50.260190556419602</v>
+      </c>
+      <c r="DG4">
+        <v>-50.243224482490803</v>
+      </c>
+      <c r="DH4">
+        <v>-49.798049137588798</v>
+      </c>
+      <c r="DI4">
+        <v>-49.902077126773499</v>
+      </c>
+      <c r="DJ4">
+        <v>-49.681278834659601</v>
+      </c>
+      <c r="DK4">
+        <v>-49.534834197824303</v>
+      </c>
+      <c r="DL4">
+        <v>-49.4592502074021</v>
+      </c>
+      <c r="DM4">
+        <v>-49.3147231428065</v>
+      </c>
+      <c r="DN4">
+        <v>-49.073495218505698</v>
+      </c>
+      <c r="DO4">
+        <v>-48.813015844906097</v>
+      </c>
+      <c r="DP4">
+        <v>-47.588611820663601</v>
+      </c>
+      <c r="DQ4">
+        <v>-46.7273361354709</v>
+      </c>
+      <c r="DR4">
+        <v>-44.413258689512801</v>
+      </c>
+      <c r="DS4">
+        <v>-42.131890581345999</v>
+      </c>
+      <c r="DT4">
+        <v>-38.788063762612502</v>
+      </c>
+      <c r="DU4">
+        <v>-34.687131330876603</v>
+      </c>
+      <c r="DV4">
+        <v>-30.2488188535735</v>
+      </c>
+      <c r="DW4">
+        <v>-24.808486088328699</v>
+      </c>
+      <c r="DX4">
+        <v>-20.094295963195201</v>
+      </c>
+      <c r="DY4">
+        <v>-15.2020695097856</v>
+      </c>
+      <c r="DZ4">
+        <v>-10.757691853271901</v>
+      </c>
+      <c r="EA4">
+        <v>-7.5300457185483101</v>
+      </c>
+      <c r="EB4">
+        <v>-5.5387848817392697</v>
+      </c>
+      <c r="EC4">
+        <v>-2.7223745513666899</v>
+      </c>
+      <c r="ED4">
+        <v>-0.67474496529335104</v>
+      </c>
+      <c r="EE4">
+        <v>0.80384442974578096</v>
+      </c>
+      <c r="EF4">
+        <v>2.3517984524917699</v>
+      </c>
+      <c r="EG4">
+        <v>3.1073052732775301</v>
+      </c>
+      <c r="EH4">
+        <v>3.4972739202001302</v>
+      </c>
+      <c r="EI4">
+        <v>4.10873234542471</v>
+      </c>
+      <c r="EJ4">
+        <v>4.6927313715082102</v>
+      </c>
+      <c r="EK4">
+        <v>4.9956395574713204</v>
+      </c>
+      <c r="EL4">
+        <v>5.3849410433741403</v>
+      </c>
+      <c r="EM4">
+        <v>5.8864168645108501</v>
+      </c>
+      <c r="EN4">
+        <v>6.0341669965943696</v>
+      </c>
+      <c r="EO4">
+        <v>6.4057126192496696</v>
+      </c>
+      <c r="EP4">
+        <v>6.7039740889913801</v>
+      </c>
+      <c r="EQ4">
+        <v>6.8325160685327404</v>
+      </c>
+      <c r="ER4">
+        <v>7.0710708820404999</v>
+      </c>
+      <c r="ES4">
+        <v>7.2219676094473702</v>
+      </c>
+      <c r="ET4">
+        <v>7.1154972363760303</v>
+      </c>
+      <c r="EU4">
+        <v>7.2847804452242002</v>
+      </c>
+      <c r="EV4">
+        <v>7.2547705095576696</v>
+      </c>
+      <c r="EW4">
+        <v>7.1458394470623201</v>
+      </c>
+      <c r="EX4">
+        <v>7.1704038271292196</v>
+      </c>
+      <c r="EY4">
+        <v>7.1913479633087096</v>
+      </c>
+      <c r="EZ4">
+        <v>7.1779568021407796</v>
+      </c>
+      <c r="FA4">
+        <v>7.2478207193116297</v>
+      </c>
+      <c r="FB4">
+        <v>7.1843636489368201</v>
+      </c>
+      <c r="FC4">
+        <v>7.1500456859263597</v>
+      </c>
+      <c r="FD4">
+        <v>7.1348588946674001</v>
+      </c>
+      <c r="FE4">
+        <v>7.10699942004333</v>
+      </c>
+      <c r="FF4">
+        <v>7.01960512983685</v>
+      </c>
+      <c r="FG4">
+        <v>6.9270174870456804</v>
+      </c>
+      <c r="FH4">
+        <v>6.9317239698838202</v>
+      </c>
+      <c r="FI4">
+        <v>6.7924547907350599</v>
+      </c>
+      <c r="FJ4">
+        <v>6.7511041664317197</v>
+      </c>
+      <c r="FK4">
+        <v>6.6658574188431299</v>
+      </c>
+      <c r="FL4">
+        <v>6.5334497049124902</v>
+      </c>
+      <c r="FM4">
+        <v>6.5846158819431997</v>
+      </c>
+      <c r="FN4">
+        <v>6.2927297259859296</v>
+      </c>
+      <c r="FO4">
+        <v>6.2542872095917996</v>
+      </c>
+      <c r="FP4">
+        <v>5.4545619788387896</v>
+      </c>
+      <c r="FQ4">
+        <v>5.1205620877862099</v>
+      </c>
+      <c r="FR4">
+        <v>4.5938382446103496</v>
+      </c>
+      <c r="FS4">
+        <v>4.4222159036609403</v>
+      </c>
+      <c r="FT4">
+        <v>3.4452398373791899</v>
+      </c>
+      <c r="FU4">
+        <v>3.0939494524466502</v>
+      </c>
+      <c r="FV4">
+        <v>2.3248578319954198</v>
+      </c>
+      <c r="FW4">
+        <v>2.3738938411802399</v>
+      </c>
+      <c r="FX4">
+        <v>1.9602648707402901</v>
+      </c>
+      <c r="FY4">
+        <v>1.6684990317256401</v>
+      </c>
+      <c r="FZ4">
+        <v>1.60193983372715</v>
+      </c>
+      <c r="GA4">
+        <v>1.3030512438939501</v>
+      </c>
+      <c r="GB4">
+        <v>1.43938379204485</v>
+      </c>
+      <c r="GC4">
+        <v>1.28894520321265</v>
+      </c>
+      <c r="GD4">
+        <v>1.3709530159668499</v>
+      </c>
+      <c r="GE4">
+        <v>1.2298363197723601</v>
+      </c>
+      <c r="GF4">
+        <v>1.4167668664742401</v>
+      </c>
+      <c r="GG4">
+        <v>1.29673429081628</v>
+      </c>
+      <c r="GH4">
+        <v>1.3493942005495301</v>
+      </c>
+      <c r="GI4">
+        <v>1.4576390783222399</v>
+      </c>
+      <c r="GJ4">
+        <v>1.47231563326092</v>
+      </c>
+      <c r="GK4">
+        <v>1.6633693145387201</v>
+      </c>
+      <c r="GL4">
+        <v>1.84209874064833</v>
+      </c>
+      <c r="GM4">
+        <v>1.96435426908109</v>
+      </c>
+      <c r="GN4">
+        <v>1.99005840316319</v>
+      </c>
+      <c r="GO4">
+        <v>2.12556585482645</v>
+      </c>
+      <c r="GP4">
+        <v>2.2073762517322999</v>
+      </c>
+      <c r="GQ4">
+        <v>2.3104667914385102</v>
+      </c>
+      <c r="GR4">
+        <v>2.4051240105529401</v>
+      </c>
+      <c r="GS4">
+        <v>2.5031233546178902</v>
+      </c>
+      <c r="GT4">
+        <v>2.5997982145649501</v>
       </c>
     </row>
-    <row r="9" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:202" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49">
+    <row r="5" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D78">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D80">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D105">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D106">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D107">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D108">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D111">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D112">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D118">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D119">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D122">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D123">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D125">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D126">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D127">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D128">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D131">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D132">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D133">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D134">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D135">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D136">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D137">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D138">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D139">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D140">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D172">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D173">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D174">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D175">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D179">
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D180">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D181">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D182">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D183">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D184">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D185">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D186">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D187">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D188">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D189">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D190">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D191">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D192">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D194">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D196">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D197">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D198">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D199">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D200">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D201">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D203">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D205">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D206">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D207">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D215">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D220">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D221">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D224">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D225">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D226">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D227">
-        <v>-81</v>
-      </c>
-    </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D228">
-        <v>-124</v>
-      </c>
-    </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D229">
-        <v>-163</v>
-      </c>
-    </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D230">
-        <v>-209</v>
-      </c>
-    </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D231">
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D232">
-        <v>-243</v>
-      </c>
-    </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D233">
-        <v>-242</v>
-      </c>
-    </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D234">
-        <v>-227</v>
-      </c>
-    </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D235">
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D236">
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D237">
-        <v>-136</v>
-      </c>
-    </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D238">
-        <v>-103</v>
-      </c>
-    </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D239">
-        <v>-81</v>
-      </c>
-    </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D240">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D241">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D242">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D243">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D245">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D246">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D247">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D248">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D249">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D250">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D251">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D252">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D253">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D254">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D255">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D256">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D257">
-        <v>18</v>
+      <c r="B5">
+        <v>-2.3060207349313702</v>
+      </c>
+      <c r="C5">
+        <v>-2.3495597389602598</v>
+      </c>
+      <c r="D5">
+        <v>-2.4611002673293898</v>
+      </c>
+      <c r="E5">
+        <v>-2.6092880458450498</v>
+      </c>
+      <c r="F5">
+        <v>-2.6263803844521298</v>
+      </c>
+      <c r="G5">
+        <v>-2.73644110384733</v>
+      </c>
+      <c r="H5">
+        <v>-2.8846604150995998</v>
+      </c>
+      <c r="I5">
+        <v>-2.84004582717168</v>
+      </c>
+      <c r="J5">
+        <v>-3.07984358789072</v>
+      </c>
+      <c r="K5">
+        <v>-3.13517087145854</v>
+      </c>
+      <c r="L5">
+        <v>-3.2380509669348498</v>
+      </c>
+      <c r="M5">
+        <v>-3.34385612794234</v>
+      </c>
+      <c r="N5">
+        <v>-3.4498849851892501</v>
+      </c>
+      <c r="O5">
+        <v>-3.5559740421776098</v>
+      </c>
+      <c r="P5">
+        <v>-3.6621134240473801</v>
+      </c>
+      <c r="Q5">
+        <v>-3.7064725549199902</v>
+      </c>
+      <c r="R5">
+        <v>-3.8186597918098002</v>
+      </c>
+      <c r="S5">
+        <v>-3.9056540611842498</v>
+      </c>
+      <c r="T5">
+        <v>-3.9911609219244801</v>
+      </c>
+      <c r="U5">
+        <v>-4.07661532821656</v>
+      </c>
+      <c r="V5">
+        <v>-4.1621041578060201</v>
+      </c>
+      <c r="W5">
+        <v>-3.8148226871553899</v>
+      </c>
+      <c r="X5">
+        <v>-3.5092198432751398</v>
+      </c>
+      <c r="Y5">
+        <v>-3.5014065917807899</v>
+      </c>
+      <c r="Z5">
+        <v>-3.4298340401706802</v>
+      </c>
+      <c r="AA5">
+        <v>-3.5204187334228498</v>
+      </c>
+      <c r="AB5">
+        <v>-3.3218135266889002</v>
+      </c>
+      <c r="AC5">
+        <v>-3.6851675933208399</v>
+      </c>
+      <c r="AD5">
+        <v>-3.8910137893371299</v>
+      </c>
+      <c r="AE5">
+        <v>-3.9351118810351799</v>
+      </c>
+      <c r="AF5">
+        <v>-4.6108239106960696</v>
+      </c>
+      <c r="AG5">
+        <v>-4.6908537937330399</v>
+      </c>
+      <c r="AH5">
+        <v>-5.0411943791190001</v>
+      </c>
+      <c r="AI5">
+        <v>-5.6878591304967898</v>
+      </c>
+      <c r="AJ5">
+        <v>-5.8713438058576504</v>
+      </c>
+      <c r="AK5">
+        <v>-6.3167090290720802</v>
+      </c>
+      <c r="AL5">
+        <v>-6.7812596989627396</v>
+      </c>
+      <c r="AM5">
+        <v>-6.9283066417988604</v>
+      </c>
+      <c r="AN5">
+        <v>-6.8771002595794002</v>
+      </c>
+      <c r="AO5">
+        <v>-7.2688651251864096</v>
+      </c>
+      <c r="AP5">
+        <v>-7.3291687061026503</v>
+      </c>
+      <c r="AQ5">
+        <v>-7.5125255251936203</v>
+      </c>
+      <c r="AR5">
+        <v>-7.4592251253888602</v>
+      </c>
+      <c r="AS5">
+        <v>-7.6062193122318504</v>
+      </c>
+      <c r="AT5">
+        <v>-7.6773580166844404</v>
+      </c>
+      <c r="AU5">
+        <v>-7.4966142141534302</v>
+      </c>
+      <c r="AV5">
+        <v>-7.5249068797263803</v>
+      </c>
+      <c r="AW5">
+        <v>-7.5200212425805599</v>
+      </c>
+      <c r="AX5">
+        <v>-7.4837741777417399</v>
+      </c>
+      <c r="AY5">
+        <v>-7.4456119161333101</v>
+      </c>
+      <c r="AZ5">
+        <v>-7.4073168788133996</v>
+      </c>
+      <c r="BA5">
+        <v>-7.4308269507799896</v>
+      </c>
+      <c r="BB5">
+        <v>-7.4483702845966198</v>
+      </c>
+      <c r="BC5">
+        <v>-7.4233599918177804</v>
+      </c>
+      <c r="BD5">
+        <v>-7.3632816468835003</v>
+      </c>
+      <c r="BE5">
+        <v>-7.3726031462388999</v>
+      </c>
+      <c r="BF5">
+        <v>-7.3567816016242098</v>
+      </c>
+      <c r="BG5">
+        <v>-7.1539404327870599</v>
+      </c>
+      <c r="BH5">
+        <v>-7.2161641053927097</v>
+      </c>
+      <c r="BI5">
+        <v>-7.13486748321208</v>
+      </c>
+      <c r="BJ5">
+        <v>-7.0741935014654302</v>
+      </c>
+      <c r="BK5">
+        <v>-7.0147417302715001</v>
+      </c>
+      <c r="BL5">
+        <v>-6.9553378173693199</v>
+      </c>
+      <c r="BM5">
+        <v>-6.8340806650435999</v>
+      </c>
+      <c r="BN5">
+        <v>-6.8424043273913799</v>
+      </c>
+      <c r="BO5">
+        <v>-6.7576790662872099</v>
+      </c>
+      <c r="BP5">
+        <v>-6.7584614832639103</v>
+      </c>
+      <c r="BQ5">
+        <v>-7.1256825894886502</v>
+      </c>
+      <c r="BR5">
+        <v>-8.2803568000209999</v>
+      </c>
+      <c r="BS5">
+        <v>-8.2576772272028407</v>
+      </c>
+      <c r="BT5">
+        <v>-11.7803571302529</v>
+      </c>
+      <c r="BU5">
+        <v>-12.013343982318901</v>
+      </c>
+      <c r="BV5">
+        <v>-17.998949537432299</v>
+      </c>
+      <c r="BW5">
+        <v>-21.647447347646398</v>
+      </c>
+      <c r="BX5">
+        <v>-24.365015251865898</v>
+      </c>
+      <c r="BY5">
+        <v>-29.714671770856299</v>
+      </c>
+      <c r="BZ5">
+        <v>-32.457771425225502</v>
+      </c>
+      <c r="CA5">
+        <v>-36.964974959721197</v>
+      </c>
+      <c r="CB5">
+        <v>-39.227145794752502</v>
+      </c>
+      <c r="CC5">
+        <v>-40.903992804671702</v>
+      </c>
+      <c r="CD5">
+        <v>-44.670730416426501</v>
+      </c>
+      <c r="CE5">
+        <v>-45.045279167577597</v>
+      </c>
+      <c r="CF5">
+        <v>-46.007011762780998</v>
+      </c>
+      <c r="CG5">
+        <v>-48.0652773739221</v>
+      </c>
+      <c r="CH5">
+        <v>-47.517284661377403</v>
+      </c>
+      <c r="CI5">
+        <v>-47.525905827956699</v>
+      </c>
+      <c r="CJ5">
+        <v>-47.487399324369001</v>
+      </c>
+      <c r="CK5">
+        <v>-47.730471826214497</v>
+      </c>
+      <c r="CL5">
+        <v>-47.176343704529799</v>
+      </c>
+      <c r="CM5">
+        <v>-47.074543296710502</v>
+      </c>
+      <c r="CN5">
+        <v>-46.856471063063502</v>
+      </c>
+      <c r="CO5">
+        <v>-46.621541455861603</v>
+      </c>
+      <c r="CP5">
+        <v>-46.343287597090097</v>
+      </c>
+      <c r="CQ5">
+        <v>-46.029807589945598</v>
+      </c>
+      <c r="CR5">
+        <v>-46.0947563560525</v>
+      </c>
+      <c r="CS5">
+        <v>-45.548231346124602</v>
+      </c>
+      <c r="CT5">
+        <v>-45.335555013315599</v>
+      </c>
+      <c r="CU5">
+        <v>-45.035322978806597</v>
+      </c>
+      <c r="CV5">
+        <v>-44.833686468907402</v>
+      </c>
+      <c r="CW5">
+        <v>-44.537032183914199</v>
+      </c>
+      <c r="CX5">
+        <v>-44.387503094575898</v>
+      </c>
+      <c r="CY5">
+        <v>-44.103718114287197</v>
+      </c>
+      <c r="CZ5">
+        <v>-43.808547731851199</v>
+      </c>
+      <c r="DA5">
+        <v>-43.584107974492902</v>
+      </c>
+      <c r="DB5">
+        <v>-43.334502910296102</v>
+      </c>
+      <c r="DC5">
+        <v>-43.145094008888798</v>
+      </c>
+      <c r="DD5">
+        <v>-42.887697247183503</v>
+      </c>
+      <c r="DE5">
+        <v>-42.779079886083402</v>
+      </c>
+      <c r="DF5">
+        <v>-42.350834813845097</v>
+      </c>
+      <c r="DG5">
+        <v>-42.176394659588397</v>
+      </c>
+      <c r="DH5">
+        <v>-42.176518177496803</v>
+      </c>
+      <c r="DI5">
+        <v>-41.839183325739498</v>
+      </c>
+      <c r="DJ5">
+        <v>-41.670213567780301</v>
+      </c>
+      <c r="DK5">
+        <v>-41.543845653208201</v>
+      </c>
+      <c r="DL5">
+        <v>-41.348452104389096</v>
+      </c>
+      <c r="DM5">
+        <v>-41.239972389998499</v>
+      </c>
+      <c r="DN5">
+        <v>-41.188818446346602</v>
+      </c>
+      <c r="DO5">
+        <v>-40.841873643635502</v>
+      </c>
+      <c r="DP5">
+        <v>-40.873873090786503</v>
+      </c>
+      <c r="DQ5">
+        <v>-40.697685481465903</v>
+      </c>
+      <c r="DR5">
+        <v>-40.072872541457301</v>
+      </c>
+      <c r="DS5">
+        <v>-39.560205933728597</v>
+      </c>
+      <c r="DT5">
+        <v>-39.072835334575402</v>
+      </c>
+      <c r="DU5">
+        <v>-38.729362218637903</v>
+      </c>
+      <c r="DV5">
+        <v>-38.452822406112901</v>
+      </c>
+      <c r="DW5">
+        <v>-37.985194396925102</v>
+      </c>
+      <c r="DX5">
+        <v>-37.984448330223302</v>
+      </c>
+      <c r="DY5">
+        <v>-37.664136305689198</v>
+      </c>
+      <c r="DZ5">
+        <v>-37.263020429457903</v>
+      </c>
+      <c r="EA5">
+        <v>-37.0586345809823</v>
+      </c>
+      <c r="EB5">
+        <v>-36.992862773214199</v>
+      </c>
+      <c r="EC5">
+        <v>-36.968126492156003</v>
+      </c>
+      <c r="ED5">
+        <v>-36.747714438631597</v>
+      </c>
+      <c r="EE5">
+        <v>-36.694585279023201</v>
+      </c>
+      <c r="EF5">
+        <v>-36.580013394640098</v>
+      </c>
+      <c r="EG5">
+        <v>-36.367360127215498</v>
+      </c>
+      <c r="EH5">
+        <v>-36.291773483796199</v>
+      </c>
+      <c r="EI5">
+        <v>-36.289414337003599</v>
+      </c>
+      <c r="EJ5">
+        <v>-36.148388809382098</v>
+      </c>
+      <c r="EK5">
+        <v>-35.995773594505501</v>
+      </c>
+      <c r="EL5">
+        <v>-35.852109357474198</v>
+      </c>
+      <c r="EM5">
+        <v>-35.751123979396802</v>
+      </c>
+      <c r="EN5">
+        <v>-35.6233287994514</v>
+      </c>
+      <c r="EO5">
+        <v>-35.493853788025604</v>
+      </c>
+      <c r="EP5">
+        <v>-35.487880077000398</v>
+      </c>
+      <c r="EQ5">
+        <v>-35.655432976294598</v>
+      </c>
+      <c r="ER5">
+        <v>-35.472688370385498</v>
+      </c>
+      <c r="ES5">
+        <v>-35.548779339934597</v>
+      </c>
+      <c r="ET5">
+        <v>-35.477848871959999</v>
+      </c>
+      <c r="EU5">
+        <v>-35.498883576323102</v>
+      </c>
+      <c r="EV5">
+        <v>-35.496146946792997</v>
+      </c>
+      <c r="EW5">
+        <v>-35.553799521165203</v>
+      </c>
+      <c r="EX5">
+        <v>-35.543584632858497</v>
+      </c>
+      <c r="EY5">
+        <v>-35.558605196461102</v>
+      </c>
+      <c r="EZ5">
+        <v>-35.698820628079297</v>
+      </c>
+      <c r="FA5">
+        <v>-35.765409555694497</v>
+      </c>
+      <c r="FB5">
+        <v>-35.691058961355303</v>
+      </c>
+      <c r="FC5">
+        <v>-35.7187603553052</v>
+      </c>
+      <c r="FD5">
+        <v>-35.889164206279098</v>
+      </c>
+      <c r="FE5">
+        <v>-35.8958350957448</v>
+      </c>
+      <c r="FF5">
+        <v>-35.951293252253002</v>
+      </c>
+      <c r="FG5">
+        <v>-36.009730367242099</v>
+      </c>
+      <c r="FH5">
+        <v>-36.068373600287401</v>
+      </c>
+      <c r="FI5">
+        <v>-36.188885118864803</v>
+      </c>
+      <c r="FJ5">
+        <v>-36.241646405882101</v>
+      </c>
+      <c r="FK5">
+        <v>-36.134187953842499</v>
+      </c>
+      <c r="FL5">
+        <v>-36.2934593126867</v>
+      </c>
+      <c r="FM5">
+        <v>-35.9383739082758</v>
+      </c>
+      <c r="FN5">
+        <v>-33.846582820704398</v>
+      </c>
+      <c r="FO5">
+        <v>-33.9768464488821</v>
+      </c>
+      <c r="FP5">
+        <v>-30.679455026642099</v>
+      </c>
+      <c r="FQ5">
+        <v>-27.447893962323</v>
+      </c>
+      <c r="FR5">
+        <v>-23.6808276976112</v>
+      </c>
+      <c r="FS5">
+        <v>-18.563893728807201</v>
+      </c>
+      <c r="FT5">
+        <v>-13.902030320897101</v>
+      </c>
+      <c r="FU5">
+        <v>-9.2812347662553201</v>
+      </c>
+      <c r="FV5">
+        <v>-4.5320231307633598</v>
+      </c>
+      <c r="FW5">
+        <v>-0.394044964295509</v>
+      </c>
+      <c r="FX5">
+        <v>1.1046676136814899</v>
+      </c>
+      <c r="FY5">
+        <v>6.2254057011538002</v>
+      </c>
+      <c r="FZ5">
+        <v>7.8575367782396297</v>
+      </c>
+      <c r="GA5">
+        <v>9.5283259524503698</v>
+      </c>
+      <c r="GB5">
+        <v>11.2638814082596</v>
+      </c>
+      <c r="GC5">
+        <v>11.8166027544831</v>
+      </c>
+      <c r="GD5">
+        <v>12.490584864422299</v>
+      </c>
+      <c r="GE5">
+        <v>12.886437078340601</v>
+      </c>
+      <c r="GF5">
+        <v>12.7528699207299</v>
+      </c>
+      <c r="GG5">
+        <v>12.940382356430201</v>
+      </c>
+      <c r="GH5">
+        <v>13.003091877773</v>
+      </c>
+      <c r="GI5">
+        <v>12.4884309268117</v>
+      </c>
+      <c r="GJ5">
+        <v>12.481627969229301</v>
+      </c>
+      <c r="GK5">
+        <v>12.023457898424599</v>
+      </c>
+      <c r="GL5">
+        <v>11.823951440411999</v>
+      </c>
+      <c r="GM5">
+        <v>11.5226218679485</v>
+      </c>
+      <c r="GN5">
+        <v>11.214993302662</v>
+      </c>
+      <c r="GO5">
+        <v>10.845017913801399</v>
+      </c>
+      <c r="GP5">
+        <v>10.542654012134101</v>
+      </c>
+      <c r="GQ5">
+        <v>10.153071622014499</v>
+      </c>
+      <c r="GR5">
+        <v>9.8914158639825498</v>
+      </c>
+      <c r="GS5">
+        <v>9.53649221425629</v>
+      </c>
+      <c r="GT5">
+        <v>9.0814540946031403</v>
       </c>
     </row>
   </sheetData>
